--- a/Documentos de especificação complementar/Priorização de Kano.xlsx
+++ b/Documentos de especificação complementar/Priorização de Kano.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Projeto Engenharia de Software II\Documentos de especificação complementar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,6 +121,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -125,7 +131,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,9 +169,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +204,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +256,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -484,28 +524,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Documentos de especificação complementar/Priorização de Kano.xlsx
+++ b/Documentos de especificação complementar/Priorização de Kano.xlsx
@@ -1,18 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Projeto Engenharia de Software II\Documentos de especificação complementar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -57,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,9 +118,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -131,7 +125,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,9 +163,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,26 +198,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,26 +233,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,4 +484,28 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>